--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -984,13 +984,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSTerminologiasDiag</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1069,6 +1063,9 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1796,7 +1793,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.01171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -8975,13 +8972,11 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9014,30 +9009,30 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AP60" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9152,10 +9147,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9272,10 +9267,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9394,10 +9389,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9512,10 +9507,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9632,10 +9627,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9754,10 +9749,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9874,10 +9869,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9994,10 +9989,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10023,7 +10018,7 @@
         <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>218</v>
@@ -10114,10 +10109,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10236,10 +10231,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10265,7 +10260,7 @@
         <v>171</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>234</v>
@@ -10358,10 +10353,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10387,13 +10382,13 @@
         <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10419,14 +10414,14 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10443,7 +10438,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10461,31 +10456,31 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10504,17 +10499,17 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10563,7 +10558,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>91</v>
@@ -10578,19 +10573,19 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10598,10 +10593,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10624,16 +10619,16 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10683,7 +10678,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10698,19 +10693,19 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>79</v>
@@ -10718,10 +10713,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10744,16 +10739,16 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10803,7 +10798,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10818,19 +10813,19 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -10838,10 +10833,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10864,16 +10859,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10923,7 +10918,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10932,7 +10927,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>103</v>
@@ -10947,10 +10942,10 @@
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>79</v>
@@ -10958,10 +10953,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10984,13 +10979,13 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11041,7 +11036,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11062,13 +11057,13 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11076,10 +11071,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11102,13 +11097,13 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11159,7 +11154,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11183,10 +11178,10 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11194,10 +11189,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11220,13 +11215,13 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11277,7 +11272,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11298,13 +11293,13 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11312,10 +11307,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11338,13 +11333,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11395,7 +11390,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11407,19 +11402,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11430,10 +11425,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11548,10 +11543,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11668,14 +11663,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11697,10 +11692,10 @@
         <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>140</v>
@@ -11755,7 +11750,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11790,10 +11785,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11819,10 +11814,10 @@
         <v>158</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11849,40 +11844,40 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -11891,13 +11886,13 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11908,10 +11903,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11934,13 +11929,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11991,7 +11986,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12000,7 +11995,7 @@
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>103</v>
@@ -12015,7 +12010,7 @@
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12026,10 +12021,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12055,10 +12050,10 @@
         <v>158</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12085,14 +12080,14 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12109,7 +12104,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12133,7 +12128,7 @@
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12144,10 +12139,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12170,16 +12165,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12229,7 +12224,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12241,19 +12236,19 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12264,10 +12259,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12382,10 +12377,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12502,14 +12497,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12531,10 +12526,10 @@
         <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>140</v>
@@ -12589,7 +12584,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12624,10 +12619,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12653,10 +12648,10 @@
         <v>158</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12683,14 +12678,14 @@
         <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12707,7 +12702,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12716,13 +12711,13 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>268</v>
@@ -12731,10 +12726,10 @@
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>79</v>
@@ -12742,10 +12737,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12768,13 +12763,13 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12825,7 +12820,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -12834,7 +12829,7 @@
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -12849,10 +12844,10 @@
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -12860,10 +12855,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12886,13 +12881,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12943,7 +12938,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -12958,16 +12953,16 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>91</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ConditionDiagnosticoLE.xlsx
+++ b/StructureDefinition-ConditionDiagnosticoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
